--- a/review-service/src/main/resources/reviews.xlsx
+++ b/review-service/src/main/resources/reviews.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="422">
   <si>
     <t xml:space="preserve">reviewerEmail</t>
   </si>
@@ -722,6 +722,588 @@
   </si>
   <si>
     <t xml:space="preserve">Great phone! Only wish there were stereo speakers instead of just mono. Sound quality is only average when listening to music without earbuds. Processor is a bit underpowered, but that only matters if you're a serious gamer &amp; insist on playing only the largest, most graphically complex games available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">venky1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good TV with great display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I got this LED yesterday and so far my reviews are:Built in google apps including playstore so you can download any app you want very easily.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tarak2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simply awesome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good Product, can say value for money , but installation guy is not professional...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mahesh3@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonderful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best features at unbelievable price, don't think about any other brand.. Just go for it. Received the product on scheduled date with same day installation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balu4@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classy product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good product...best for beginners and price range is so good....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pavan5@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could be way better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the lens mount is built with polycarbonat, so if u use a high weight lens it may damage the body..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikon D5600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chiru9@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome product with good build quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So After reviewing it a lot I finally decided to buy this AC. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whirpool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moni10@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">everything just fine but the costing is too way much high..like if I go for local vendor installation which is also a standard installation it will only going to cost me down 1500 in total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinky@13gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worth the money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bought this Ac in big billion days after all discounts for 25k. very happy with the price. Ac looks a little old model and bigger in size even the outdoor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Godrej L3star </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Godrej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rohi11@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Product is too good and got it for very less price..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aishwarya@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it's value of money,very fast delivery .all around it's really a superb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Display - It does not have amoled panel that does not make its bad. Because it has one of the best IPS panel ever. Crisp display &amp; the colours are attractive. Brightness is good. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tovino@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrific purchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value for money best phn in this range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redmi Y3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worth every penny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance - Not A Gaming Phone!!Use It For Movie Music Whatsapp Facebool Etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vivo V15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arjun1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brilliant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is the most beautiful phone in this price segment...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honor 10 Lite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall product is good but earphones is not provided is penny.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPPO K3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oppo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ahaana@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The perfect protection to body and lens and rugged design.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnePlus 7 Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnePlus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">janvi@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huawei Mate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huawei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the display is amazing.. even the charging speed is unbelievable ... Best all rounder under 10k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moto E5 Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redmi 6 Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micromax Canvas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micromax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanjiv@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best budget all rounder .The gradient colour looks amazing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realme U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anku@outlook.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCL LED TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">niki3@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philips LED TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riki2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good sound and Mi service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi LED TV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanchit@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panasonic Split AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panasonic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhira@outlook.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toshiba  AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toshiba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Star AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Star</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llyod AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llyod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitachi AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitachi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onida  AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whirpool Frost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They charged 400 to fit outside stand and charged 600 for drainpipe extension and 100 for whiter cement. This is in addition to fitting charge by Amazon. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung Frost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haier DirectCool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi.. Pet is good but Samsung installation is very bad... Technician said simply change d tap and move away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosch L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the best</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. U put clothes, detergent, and plug into tap and forget. It'll do a nice washing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LG TopLoading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. A lot of water is required. This is a little drawback, as water is scarce in metroes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosch Toploading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best product @this price. Even elders can operate easily.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung Toploading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No sound pollution looks wise also good, only concern is clothes get wrinkled but it's not worry factor if we go for ironing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BPL Toploading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not a powerful moto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was using semi automatic washing machine.The capacity was more and was able to wash al our cloths in one short.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whirpool Toploading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gets the job done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No useless functionality, superb build quality and good output is what defines this machine. Often we pay for lots of functionalities that we don't use at all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haier Toploading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy if you can manage installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy Samsung products only if you can manage installation yourself. Pathetic customer care from Samsung. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Godrej Toploading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After all most of the time it will be used by the persons who aren't that tech savvy. I recommend this machine for general everyday users.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFB 6kg Fully-Automated Frontloading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good product for beginners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a beginner's camera this is perhaps the best one. A lot can be learned quickly by nevigating the guided Menu. However, this Moonshot is my first snap fron Canon eos 200D Mark II.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canon M50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worthy music option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got for my room. Prime day sale for 2250. Great price. Perfectly what I wanted for my room. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BoatStone Speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boat Stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome but high price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good Camera But Price On Amazon Too High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GoPro Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GoPro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bought this for my upcoming Ladakh trip and was lucky to get it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FujiFilm Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FujiFilm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy to learn DSLR for beginners. And has improved battery life also</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leica Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great product for music lovers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This product is really amazing... sound quality is extraordinary...it would even better if the product has wireless speakers...but still it rocks...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sony Speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Played mp3s with usb stick today. Amazing quality again. You’d realise the true sound of these lovely speakers in great quality music.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mivi Speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mivi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mind blowing product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never expected such a mind blowing product from I Ball. Truly superb, the Base output is awesome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBL Speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value for money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome product ,sound quality is too good with this price range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UE Speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UE Wonderboom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satisfactory bass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solely bought it for extra bass effect which normal Bluetooth speakers fail to deliver, but for this one it has got right what you need. Wouldn't expect anymore for 2.5k (Prime Day Offer). Go for it, sure won't regret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sony Real </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing inside </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dont go for this product. At first, I thought it was a good product but it is not. Only 3 months, just Minimum usage it stopped working. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philips system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't like this product because one 3.5 mm Jack is not working in phone totally cheated but it works on pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bose Solo Soundbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why the battery is draining so fast in this model. Never faced problem with any other Redmi mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LG W30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice phone only demerits is that screen size is a bit small and speaker is a bit noisy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung Galaxy M20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good product from blackberry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good phone in this price better performance redmi 6 double camera fingerprint charger is so good battery backup is best</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackberry Evolve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackberry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amazing phone... Slim beautiful.. No words... Thanks amazone for timely delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTC Desire12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall it is good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile is cheap but camera quality is not much good as expected, UI is good .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nokia 6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nokia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front camera not working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front camera is not working, why and what to do? Will you replace other one please?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honor 7C</t>
   </si>
 </sst>
 </file>
@@ -731,11 +1313,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -753,10 +1336,15 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -801,7 +1389,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -810,7 +1398,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -818,8 +1406,16 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -839,10 +1435,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="A70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B96" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B129" activeCellId="0" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -850,9 +1446,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="151.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.07"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2443,6 +3039,1216 @@
         <v>40</v>
       </c>
     </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>17999</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>71990</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>19999</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>24249</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>38999</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>23999</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>29990</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>10990</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>24490</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>7999</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>168500</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>9999</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>19990</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>10990</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>16990</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>52999</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>59990</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>8329</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>8999</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>5910</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>8999</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>18999</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>8499</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>29999</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>31999</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>33000</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>34999</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>33999</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>47550</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>47450</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>23750</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>29690</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>13390</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>51890</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>27999</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>21499</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>19300</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>11090</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>15990</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>11999</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>12490</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>22499</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>48990</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>1199</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>30400</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>4045</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>25000</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>1199</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>4499</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>4999</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>17990</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>3299</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>22050</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>9999</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>11990</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>14180</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>7890</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>10449</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>9728</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/review-service/src/main/resources/reviews.xlsx
+++ b/review-service/src/main/resources/reviews.xlsx
@@ -1318,7 +1318,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1336,15 +1335,16 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1394,11 +1394,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1406,15 +1406,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1435,21 +1435,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B96" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B129" activeCellId="0" sqref="B129"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="151.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.07"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.26"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1682,7 +1680,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1728,7 +1726,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
@@ -1935,7 +1933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>70</v>
       </c>
@@ -1958,7 +1956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
@@ -1981,7 +1979,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>78</v>
       </c>
@@ -2418,7 +2416,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>141</v>
       </c>
@@ -2464,7 +2462,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>147</v>
       </c>
@@ -3039,27 +3037,27 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="6" t="s">
         <v>229</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70" s="6" t="n">
         <v>17999</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="F70" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
         <v>232</v>
       </c>
@@ -3069,17 +3067,17 @@
       <c r="C71" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71" s="6" t="n">
         <v>71990</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="F71" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
         <v>236</v>
       </c>
@@ -3089,17 +3087,17 @@
       <c r="C72" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72" s="6" t="n">
         <v>19999</v>
       </c>
-      <c r="F72" s="0" t="s">
+      <c r="F72" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
         <v>240</v>
       </c>
@@ -3109,17 +3107,17 @@
       <c r="C73" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73" s="6" t="n">
         <v>24249</v>
       </c>
-      <c r="F73" s="0" t="s">
+      <c r="F73" s="6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
         <v>244</v>
       </c>
@@ -3129,17 +3127,17 @@
       <c r="C74" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="E74" s="6" t="n">
         <v>38999</v>
       </c>
-      <c r="F74" s="0" t="s">
+      <c r="F74" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
         <v>249</v>
       </c>
@@ -3149,17 +3147,17 @@
       <c r="C75" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75" s="6" t="n">
         <v>23999</v>
       </c>
-      <c r="F75" s="0" t="s">
+      <c r="F75" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
         <v>253</v>
       </c>
@@ -3169,17 +3167,17 @@
       <c r="C76" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76" s="6" t="n">
         <v>29990</v>
       </c>
-      <c r="F76" s="0" t="s">
+      <c r="F76" s="6" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
         <v>257</v>
       </c>
@@ -3189,17 +3187,17 @@
       <c r="C77" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77" s="6" t="n">
         <v>10990</v>
       </c>
-      <c r="F77" s="0" t="s">
+      <c r="F77" s="6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
         <v>262</v>
       </c>
@@ -3209,17 +3207,17 @@
       <c r="C78" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78" s="6" t="n">
         <v>24490</v>
       </c>
-      <c r="F78" s="0" t="s">
+      <c r="F78" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
         <v>265</v>
       </c>
@@ -3229,17 +3227,17 @@
       <c r="C79" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79" s="6" t="n">
         <v>7999</v>
       </c>
-      <c r="F79" s="0" t="s">
+      <c r="F79" s="6" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
         <v>33</v>
       </c>
@@ -3249,13 +3247,13 @@
       <c r="C80" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80" s="6" t="n">
         <v>168500</v>
       </c>
-      <c r="F80" s="0" t="s">
+      <c r="F80" s="6" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3269,17 +3267,17 @@
       <c r="C81" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="F81" s="0" t="s">
+      <c r="F81" s="6" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
         <v>39</v>
       </c>
@@ -3289,17 +3287,17 @@
       <c r="C82" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82" s="6" t="n">
         <v>19990</v>
       </c>
-      <c r="F82" s="0" t="s">
+      <c r="F82" s="6" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
         <v>278</v>
       </c>
@@ -3309,17 +3307,17 @@
       <c r="C83" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83" s="6" t="n">
         <v>10990</v>
       </c>
-      <c r="F83" s="0" t="s">
+      <c r="F83" s="6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -3329,33 +3327,33 @@
       <c r="C84" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84" s="6" t="n">
         <v>16990</v>
       </c>
-      <c r="F84" s="0" t="s">
+      <c r="F84" s="6" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85" s="6" t="n">
         <v>52999</v>
       </c>
-      <c r="F85" s="0" t="s">
+      <c r="F85" s="6" t="s">
         <v>289</v>
       </c>
     </row>
@@ -3363,19 +3361,19 @@
       <c r="A86" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="E86" s="0" t="n">
+      <c r="E86" s="6" t="n">
         <v>59990</v>
       </c>
-      <c r="F86" s="0" t="s">
+      <c r="F86" s="6" t="s">
         <v>292</v>
       </c>
     </row>
@@ -3386,16 +3384,16 @@
       <c r="B87" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="E87" s="0" t="n">
+      <c r="E87" s="6" t="n">
         <v>8329</v>
       </c>
-      <c r="F87" s="0" t="s">
+      <c r="F87" s="6" t="s">
         <v>295</v>
       </c>
     </row>
@@ -3406,16 +3404,16 @@
       <c r="B88" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="E88" s="0" t="n">
+      <c r="E88" s="6" t="n">
         <v>8999</v>
       </c>
-      <c r="F88" s="0" t="s">
+      <c r="F88" s="6" t="s">
         <v>267</v>
       </c>
     </row>
@@ -3426,16 +3424,16 @@
       <c r="B89" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="E89" s="0" t="n">
+      <c r="E89" s="6" t="n">
         <v>5910</v>
       </c>
-      <c r="F89" s="0" t="s">
+      <c r="F89" s="6" t="s">
         <v>298</v>
       </c>
     </row>
@@ -3446,16 +3444,16 @@
       <c r="B90" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="E90" s="0" t="n">
+      <c r="E90" s="6" t="n">
         <v>8999</v>
       </c>
-      <c r="F90" s="0" t="s">
+      <c r="F90" s="6" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3469,13 +3467,13 @@
       <c r="C91" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91" s="6" t="n">
         <v>18999</v>
       </c>
-      <c r="F91" s="0" t="s">
+      <c r="F91" s="6" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3489,13 +3487,13 @@
       <c r="C92" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="E92" s="0" t="n">
+      <c r="E92" s="6" t="n">
         <v>8499</v>
       </c>
-      <c r="F92" s="0" t="s">
+      <c r="F92" s="6" t="s">
         <v>308</v>
       </c>
     </row>
@@ -3509,13 +3507,13 @@
       <c r="C93" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="E93" s="0" t="n">
+      <c r="E93" s="6" t="n">
         <v>29999</v>
       </c>
-      <c r="F93" s="0" t="s">
+      <c r="F93" s="6" t="s">
         <v>312</v>
       </c>
     </row>
@@ -3529,17 +3527,17 @@
       <c r="C94" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="E94" s="0" t="n">
+      <c r="E94" s="6" t="n">
         <v>31999</v>
       </c>
-      <c r="F94" s="0" t="s">
+      <c r="F94" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
         <v>316</v>
       </c>
@@ -3549,13 +3547,13 @@
       <c r="C95" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="E95" s="0" t="n">
+      <c r="E95" s="6" t="n">
         <v>33000</v>
       </c>
-      <c r="F95" s="0" t="s">
+      <c r="F95" s="6" t="s">
         <v>318</v>
       </c>
     </row>
@@ -3569,13 +3567,13 @@
       <c r="C96" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E96" s="0" t="n">
+      <c r="E96" s="6" t="n">
         <v>34999</v>
       </c>
-      <c r="F96" s="0" t="s">
+      <c r="F96" s="6" t="s">
         <v>320</v>
       </c>
     </row>
@@ -3589,13 +3587,13 @@
       <c r="C97" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="E97" s="0" t="n">
+      <c r="E97" s="6" t="n">
         <v>33999</v>
       </c>
-      <c r="F97" s="0" t="s">
+      <c r="F97" s="6" t="s">
         <v>322</v>
       </c>
     </row>
@@ -3609,13 +3607,13 @@
       <c r="C98" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E98" s="0" t="n">
+      <c r="E98" s="6" t="n">
         <v>47550</v>
       </c>
-      <c r="F98" s="0" t="s">
+      <c r="F98" s="6" t="s">
         <v>324</v>
       </c>
     </row>
@@ -3629,13 +3627,13 @@
       <c r="C99" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="E99" s="0" t="n">
+      <c r="E99" s="6" t="n">
         <v>47450</v>
       </c>
-      <c r="F99" s="0" t="s">
+      <c r="F99" s="6" t="s">
         <v>326</v>
       </c>
     </row>
@@ -3646,16 +3644,16 @@
       <c r="B100" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="E100" s="0" t="n">
+      <c r="E100" s="6" t="n">
         <v>23750</v>
       </c>
-      <c r="F100" s="0" t="s">
+      <c r="F100" s="6" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3666,16 +3664,16 @@
       <c r="B101" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="E101" s="0" t="n">
+      <c r="E101" s="6" t="n">
         <v>29690</v>
       </c>
-      <c r="F101" s="0" t="s">
+      <c r="F101" s="6" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3689,17 +3687,17 @@
       <c r="C102" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="E102" s="0" t="n">
+      <c r="E102" s="6" t="n">
         <v>13390</v>
       </c>
-      <c r="F102" s="0" t="s">
+      <c r="F102" s="6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
         <v>107</v>
       </c>
@@ -3709,546 +3707,536 @@
       <c r="C103" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="E103" s="0" t="n">
+      <c r="E103" s="6" t="n">
         <v>51890</v>
       </c>
-      <c r="F103" s="0" t="s">
+      <c r="F103" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="6" t="s">
         <v>336</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="E104" s="0" t="n">
+      <c r="E104" s="6" t="n">
         <v>27999</v>
       </c>
-      <c r="F104" s="0" t="s">
+      <c r="F104" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="E105" s="0" t="n">
+      <c r="E105" s="6" t="n">
         <v>21499</v>
       </c>
-      <c r="F105" s="0" t="s">
+      <c r="F105" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E106" s="0" t="n">
+      <c r="E106" s="6" t="n">
         <v>19300</v>
       </c>
-      <c r="F106" s="0" t="s">
+      <c r="F106" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="6" t="s">
         <v>343</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="E107" s="0" t="n">
+      <c r="E107" s="6" t="n">
         <v>11090</v>
       </c>
-      <c r="F107" s="0" t="s">
+      <c r="F107" s="6" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="6" t="s">
         <v>347</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E108" s="0" t="n">
+      <c r="E108" s="6" t="n">
         <v>15990</v>
       </c>
-      <c r="F108" s="0" t="s">
+      <c r="F108" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="6" t="s">
         <v>350</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="E109" s="0" t="n">
+      <c r="E109" s="6" t="n">
         <v>11999</v>
       </c>
-      <c r="F109" s="0" t="s">
+      <c r="F109" s="6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="6" t="s">
         <v>353</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="E110" s="0" t="n">
+      <c r="E110" s="6" t="n">
         <v>12490</v>
       </c>
-      <c r="F110" s="0" t="s">
+      <c r="F110" s="6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="E111" s="0" t="n">
+      <c r="E111" s="6" t="n">
         <v>22499</v>
       </c>
-      <c r="F111" s="0" t="s">
+      <c r="F111" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="6" t="s">
         <v>359</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="E112" s="0" t="n">
+      <c r="E112" s="6" t="n">
         <v>48990</v>
       </c>
-      <c r="F112" s="0" t="s">
+      <c r="F112" s="6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="6" t="s">
         <v>362</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="E113" s="0" t="n">
+      <c r="E113" s="6" t="n">
         <v>1199</v>
       </c>
-      <c r="F113" s="0" t="s">
+      <c r="F113" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="6" t="s">
         <v>366</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="E114" s="0" t="n">
+      <c r="E114" s="6" t="n">
         <v>30400</v>
       </c>
-      <c r="F114" s="0" t="s">
+      <c r="F114" s="6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="6" t="s">
         <v>100</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="E115" s="0" t="n">
+      <c r="E115" s="6" t="n">
         <v>4045</v>
       </c>
-      <c r="F115" s="0" t="s">
+      <c r="F115" s="6" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="6" t="s">
         <v>108</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="E116" s="0" t="n">
+      <c r="E116" s="6" t="n">
         <v>25000</v>
       </c>
-      <c r="F116" s="0" t="s">
+      <c r="F116" s="6" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="6" t="s">
         <v>376</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="E117" s="0" t="n">
+      <c r="E117" s="6" t="n">
         <v>3600</v>
       </c>
-      <c r="F117" s="0" t="s">
+      <c r="F117" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="6" t="s">
         <v>379</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="D118" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="E118" s="0" t="n">
+      <c r="E118" s="6" t="n">
         <v>1199</v>
       </c>
-      <c r="F118" s="0" t="s">
+      <c r="F118" s="6" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" s="6" t="s">
         <v>383</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E119" s="0" t="n">
+      <c r="E119" s="6" t="n">
         <v>4499</v>
       </c>
-      <c r="F119" s="0" t="s">
+      <c r="F119" s="6" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" s="6" t="s">
         <v>387</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="D120" s="0" t="s">
+      <c r="D120" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="E120" s="0" t="n">
+      <c r="E120" s="6" t="n">
         <v>4999</v>
       </c>
-      <c r="F120" s="0" t="s">
+      <c r="F120" s="6" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="6" t="s">
         <v>391</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D121" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="E121" s="0" t="n">
+      <c r="E121" s="6" t="n">
         <v>17990</v>
       </c>
-      <c r="F121" s="0" t="s">
+      <c r="F121" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" s="6" t="s">
         <v>394</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="D122" s="0" t="s">
+      <c r="D122" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="E122" s="0" t="n">
+      <c r="E122" s="6" t="n">
         <v>3299</v>
       </c>
-      <c r="F122" s="0" t="s">
+      <c r="F122" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" s="6" t="s">
         <v>397</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D123" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="E123" s="0" t="n">
+      <c r="E123" s="6" t="n">
         <v>22050</v>
       </c>
-      <c r="F123" s="0" t="s">
+      <c r="F123" s="6" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" s="6" t="s">
         <v>401</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="D124" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="E124" s="0" t="n">
+      <c r="E124" s="6" t="n">
         <v>9999</v>
       </c>
-      <c r="F124" s="0" t="s">
+      <c r="F124" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" s="6" t="s">
         <v>404</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="D125" s="0" t="s">
+      <c r="D125" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="E125" s="0" t="n">
+      <c r="E125" s="6" t="n">
         <v>11990</v>
       </c>
-      <c r="F125" s="0" t="s">
+      <c r="F125" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" s="6" t="s">
         <v>407</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="D126" s="0" t="s">
+      <c r="D126" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="E126" s="0" t="n">
+      <c r="E126" s="6" t="n">
         <v>14180</v>
       </c>
-      <c r="F126" s="0" t="s">
+      <c r="F126" s="6" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="D127" s="0" t="s">
+      <c r="D127" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="E127" s="0" t="n">
+      <c r="E127" s="6" t="n">
         <v>7890</v>
       </c>
-      <c r="F127" s="0" t="s">
+      <c r="F127" s="6" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" s="6" t="s">
         <v>415</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D128" s="0" t="s">
+      <c r="D128" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="E128" s="0" t="n">
+      <c r="E128" s="6" t="n">
         <v>10449</v>
       </c>
-      <c r="F128" s="0" t="s">
+      <c r="F128" s="6" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" s="6" t="s">
         <v>419</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="D129" s="0" t="s">
+      <c r="D129" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="E129" s="0" t="n">
+      <c r="E129" s="6" t="n">
         <v>9728</v>
       </c>
-      <c r="F129" s="0" t="s">
+      <c r="F129" s="6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/review-service/src/main/resources/reviews.xlsx
+++ b/review-service/src/main/resources/reviews.xlsx
@@ -1313,11 +1313,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1333,12 +1334,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1389,16 +1384,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1406,15 +1401,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1437,13 +1428,13 @@
   </sheetPr>
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A117" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G130" activeCellId="0" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.26"/>
@@ -3041,20 +3032,23 @@
       <c r="A70" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="6" t="n">
+      <c r="E70" s="1" t="n">
         <v>17999</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F70" s="1" t="s">
         <v>231</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3067,14 +3061,17 @@
       <c r="C71" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E71" s="6" t="n">
+      <c r="E71" s="1" t="n">
         <v>71990</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="F71" s="1" t="s">
         <v>235</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3087,14 +3084,17 @@
       <c r="C72" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E72" s="6" t="n">
+      <c r="E72" s="1" t="n">
         <v>19999</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F72" s="1" t="s">
         <v>239</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3107,14 +3107,17 @@
       <c r="C73" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E73" s="6" t="n">
+      <c r="E73" s="1" t="n">
         <v>24249</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="F73" s="1" t="s">
         <v>243</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3127,14 +3130,17 @@
       <c r="C74" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E74" s="6" t="n">
+      <c r="E74" s="1" t="n">
         <v>38999</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F74" s="1" t="s">
         <v>248</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3147,14 +3153,17 @@
       <c r="C75" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E75" s="6" t="n">
+      <c r="E75" s="1" t="n">
         <v>23999</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="F75" s="1" t="s">
         <v>252</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3167,14 +3176,17 @@
       <c r="C76" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E76" s="6" t="n">
+      <c r="E76" s="1" t="n">
         <v>29990</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="F76" s="1" t="s">
         <v>256</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3187,14 +3199,17 @@
       <c r="C77" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E77" s="6" t="n">
+      <c r="E77" s="1" t="n">
         <v>10990</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="F77" s="1" t="s">
         <v>261</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3207,14 +3222,17 @@
       <c r="C78" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E78" s="6" t="n">
+      <c r="E78" s="1" t="n">
         <v>24490</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" s="1" t="s">
         <v>239</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3227,14 +3245,17 @@
       <c r="C79" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E79" s="6" t="n">
+      <c r="E79" s="1" t="n">
         <v>7999</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F79" s="1" t="s">
         <v>267</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3247,14 +3268,17 @@
       <c r="C80" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E80" s="6" t="n">
+      <c r="E80" s="1" t="n">
         <v>168500</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="F80" s="1" t="s">
         <v>235</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3267,14 +3291,17 @@
       <c r="C81" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E81" s="6" t="n">
+      <c r="E81" s="1" t="n">
         <v>9999</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="F81" s="1" t="s">
         <v>267</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3287,14 +3314,17 @@
       <c r="C82" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E82" s="6" t="n">
+      <c r="E82" s="1" t="n">
         <v>19990</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="F82" s="1" t="s">
         <v>277</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3307,14 +3337,17 @@
       <c r="C83" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E83" s="6" t="n">
+      <c r="E83" s="1" t="n">
         <v>10990</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="F83" s="1" t="s">
         <v>282</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3327,34 +3360,40 @@
       <c r="C84" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E84" s="6" t="n">
+      <c r="E84" s="1" t="n">
         <v>16990</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F84" s="1" t="s">
         <v>285</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E85" s="6" t="n">
+      <c r="E85" s="1" t="n">
         <v>52999</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="F85" s="1" t="s">
         <v>289</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3367,14 +3406,17 @@
       <c r="C86" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E86" s="6" t="n">
+      <c r="E86" s="1" t="n">
         <v>59990</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="F86" s="1" t="s">
         <v>292</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3387,14 +3429,17 @@
       <c r="C87" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E87" s="6" t="n">
+      <c r="E87" s="1" t="n">
         <v>8329</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="F87" s="1" t="s">
         <v>295</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3407,14 +3452,17 @@
       <c r="C88" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E88" s="6" t="n">
+      <c r="E88" s="1" t="n">
         <v>8999</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="F88" s="1" t="s">
         <v>267</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3427,14 +3475,17 @@
       <c r="C89" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E89" s="6" t="n">
+      <c r="E89" s="1" t="n">
         <v>5910</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="F89" s="1" t="s">
         <v>298</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3447,14 +3498,17 @@
       <c r="C90" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E90" s="6" t="n">
+      <c r="E90" s="1" t="n">
         <v>8999</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F90" s="1" t="s">
         <v>302</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3467,14 +3521,17 @@
       <c r="C91" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E91" s="6" t="n">
+      <c r="E91" s="1" t="n">
         <v>18999</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="F91" s="1" t="s">
         <v>305</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3487,14 +3544,17 @@
       <c r="C92" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E92" s="6" t="n">
+      <c r="E92" s="1" t="n">
         <v>8499</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="1" t="s">
         <v>308</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3507,14 +3567,17 @@
       <c r="C93" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E93" s="6" t="n">
+      <c r="E93" s="1" t="n">
         <v>29999</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F93" s="1" t="s">
         <v>312</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3527,14 +3590,17 @@
       <c r="C94" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E94" s="6" t="n">
+      <c r="E94" s="1" t="n">
         <v>31999</v>
       </c>
-      <c r="F94" s="6" t="s">
+      <c r="F94" s="1" t="s">
         <v>315</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3547,14 +3613,17 @@
       <c r="C95" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E95" s="6" t="n">
+      <c r="E95" s="1" t="n">
         <v>33000</v>
       </c>
-      <c r="F95" s="6" t="s">
+      <c r="F95" s="1" t="s">
         <v>318</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3567,14 +3636,17 @@
       <c r="C96" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E96" s="6" t="n">
+      <c r="E96" s="1" t="n">
         <v>34999</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="F96" s="1" t="s">
         <v>320</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3587,14 +3659,17 @@
       <c r="C97" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E97" s="6" t="n">
+      <c r="E97" s="1" t="n">
         <v>33999</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="F97" s="1" t="s">
         <v>322</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3607,14 +3682,17 @@
       <c r="C98" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E98" s="6" t="n">
+      <c r="E98" s="1" t="n">
         <v>47550</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="F98" s="1" t="s">
         <v>324</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3627,14 +3705,17 @@
       <c r="C99" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E99" s="6" t="n">
+      <c r="E99" s="1" t="n">
         <v>47450</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="F99" s="1" t="s">
         <v>326</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3647,14 +3728,17 @@
       <c r="C100" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E100" s="6" t="n">
+      <c r="E100" s="1" t="n">
         <v>23750</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="F100" s="1" t="s">
         <v>252</v>
+      </c>
+      <c r="G100" s="0" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3667,14 +3751,17 @@
       <c r="C101" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E101" s="6" t="n">
+      <c r="E101" s="1" t="n">
         <v>29690</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="F101" s="1" t="s">
         <v>235</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3687,14 +3774,17 @@
       <c r="C102" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E102" s="6" t="n">
+      <c r="E102" s="1" t="n">
         <v>13390</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="F102" s="1" t="s">
         <v>331</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3707,534 +3797,615 @@
       <c r="C103" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E103" s="6" t="n">
+      <c r="E103" s="1" t="n">
         <v>51890</v>
       </c>
-      <c r="F103" s="6" t="s">
+      <c r="F103" s="1" t="s">
         <v>335</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="1" t="s">
         <v>336</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E104" s="6" t="n">
+      <c r="E104" s="1" t="n">
         <v>27999</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="F104" s="1" t="s">
         <v>239</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E105" s="6" t="n">
+      <c r="E105" s="1" t="n">
         <v>21499</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="F105" s="1" t="s">
         <v>335</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E106" s="6" t="n">
+      <c r="E106" s="1" t="n">
         <v>19300</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="F106" s="1" t="s">
         <v>235</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="1" t="s">
         <v>343</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="E107" s="6" t="n">
+      <c r="E107" s="1" t="n">
         <v>11090</v>
       </c>
-      <c r="F107" s="6" t="s">
+      <c r="F107" s="1" t="s">
         <v>346</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="1" t="s">
         <v>347</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E108" s="6" t="n">
+      <c r="E108" s="1" t="n">
         <v>15990</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="F108" s="1" t="s">
         <v>252</v>
+      </c>
+      <c r="G108" s="0" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D109" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E109" s="6" t="n">
+      <c r="E109" s="1" t="n">
         <v>11999</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="F109" s="1" t="s">
         <v>331</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="1" t="s">
         <v>353</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D110" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E110" s="6" t="n">
+      <c r="E110" s="1" t="n">
         <v>12490</v>
       </c>
-      <c r="F110" s="6" t="s">
+      <c r="F110" s="1" t="s">
         <v>261</v>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D111" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E111" s="6" t="n">
+      <c r="E111" s="1" t="n">
         <v>22499</v>
       </c>
-      <c r="F111" s="6" t="s">
+      <c r="F111" s="1" t="s">
         <v>358</v>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="1" t="s">
         <v>359</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D112" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E112" s="6" t="n">
+      <c r="E112" s="1" t="n">
         <v>48990</v>
       </c>
-      <c r="F112" s="6" t="s">
+      <c r="F112" s="1" t="s">
         <v>243</v>
+      </c>
+      <c r="G112" s="0" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D113" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E113" s="6" t="n">
+      <c r="E113" s="1" t="n">
         <v>1199</v>
       </c>
-      <c r="F113" s="6" t="s">
+      <c r="F113" s="1" t="s">
         <v>365</v>
+      </c>
+      <c r="G113" s="0" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="1" t="s">
         <v>366</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D114" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E114" s="6" t="n">
+      <c r="E114" s="1" t="n">
         <v>30400</v>
       </c>
-      <c r="F114" s="6" t="s">
+      <c r="F114" s="1" t="s">
         <v>369</v>
+      </c>
+      <c r="G114" s="0" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="D115" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E115" s="6" t="n">
+      <c r="E115" s="1" t="n">
         <v>4045</v>
       </c>
-      <c r="F115" s="6" t="s">
+      <c r="F115" s="1" t="s">
         <v>372</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D116" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E116" s="6" t="n">
+      <c r="E116" s="1" t="n">
         <v>25000</v>
       </c>
-      <c r="F116" s="6" t="s">
+      <c r="F116" s="1" t="s">
         <v>375</v>
+      </c>
+      <c r="G116" s="0" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="1" t="s">
         <v>376</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="E117" s="6" t="n">
+      <c r="E117" s="1" t="n">
         <v>3600</v>
       </c>
-      <c r="F117" s="6" t="s">
+      <c r="F117" s="1" t="s">
         <v>231</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="1" t="s">
         <v>379</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D118" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="E118" s="6" t="n">
+      <c r="E118" s="1" t="n">
         <v>1199</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="F118" s="1" t="s">
         <v>382</v>
+      </c>
+      <c r="G118" s="0" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="1" t="s">
         <v>383</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D119" s="6" t="s">
+      <c r="D119" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E119" s="6" t="n">
+      <c r="E119" s="1" t="n">
         <v>4499</v>
       </c>
-      <c r="F119" s="6" t="s">
+      <c r="F119" s="1" t="s">
         <v>386</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="1" t="s">
         <v>387</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D120" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="E120" s="6" t="n">
+      <c r="E120" s="1" t="n">
         <v>4999</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="F120" s="1" t="s">
         <v>390</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="1" t="s">
         <v>391</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="D121" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="E121" s="6" t="n">
+      <c r="E121" s="1" t="n">
         <v>17990</v>
       </c>
-      <c r="F121" s="6" t="s">
+      <c r="F121" s="1" t="s">
         <v>231</v>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="D122" s="6" t="s">
+      <c r="D122" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="E122" s="6" t="n">
+      <c r="E122" s="1" t="n">
         <v>3299</v>
       </c>
-      <c r="F122" s="6" t="s">
+      <c r="F122" s="1" t="s">
         <v>308</v>
+      </c>
+      <c r="G122" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="1" t="s">
         <v>397</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="D123" s="6" t="s">
+      <c r="D123" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="E123" s="6" t="n">
+      <c r="E123" s="1" t="n">
         <v>22050</v>
       </c>
-      <c r="F123" s="6" t="s">
+      <c r="F123" s="1" t="s">
         <v>400</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="1" t="s">
         <v>401</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D124" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="E124" s="6" t="n">
+      <c r="E124" s="1" t="n">
         <v>9999</v>
       </c>
-      <c r="F124" s="6" t="s">
+      <c r="F124" s="1" t="s">
         <v>239</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="1" t="s">
         <v>404</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="D125" s="6" t="s">
+      <c r="D125" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="E125" s="6" t="n">
+      <c r="E125" s="1" t="n">
         <v>11990</v>
       </c>
-      <c r="F125" s="6" t="s">
+      <c r="F125" s="1" t="s">
         <v>235</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="1" t="s">
         <v>407</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="D126" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="E126" s="6" t="n">
+      <c r="E126" s="1" t="n">
         <v>14180</v>
       </c>
-      <c r="F126" s="6" t="s">
+      <c r="F126" s="1" t="s">
         <v>410</v>
+      </c>
+      <c r="G126" s="0" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="1" t="s">
         <v>411</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="D127" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="E127" s="6" t="n">
+      <c r="E127" s="1" t="n">
         <v>7890</v>
       </c>
-      <c r="F127" s="6" t="s">
+      <c r="F127" s="1" t="s">
         <v>414</v>
+      </c>
+      <c r="G127" s="0" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="1" t="s">
         <v>415</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D128" s="6" t="s">
+      <c r="D128" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="E128" s="6" t="n">
+      <c r="E128" s="1" t="n">
         <v>10449</v>
       </c>
-      <c r="F128" s="6" t="s">
+      <c r="F128" s="1" t="s">
         <v>418</v>
+      </c>
+      <c r="G128" s="0" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="1" t="s">
         <v>419</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="D129" s="6" t="s">
+      <c r="D129" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="E129" s="6" t="n">
+      <c r="E129" s="1" t="n">
         <v>9728</v>
       </c>
-      <c r="F129" s="6" t="s">
+      <c r="F129" s="1" t="s">
         <v>282</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
